--- a/Documenti/entropia_liv_1_mese_anno.xlsx
+++ b/Documenti/entropia_liv_1_mese_anno.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="entropia_liv_1_mese_anno" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -455,7 +455,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -993,7 +993,17 @@
     <cellStyle name="Valore non valido" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Valore valido" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1006,7 +1016,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1021,7 +1031,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1036,7 +1046,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1051,7 +1061,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1066,7 +1076,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1081,7 +1091,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1096,7 +1106,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1111,7 +1121,7 @@
         <name val="Book Antiqua"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1212,24 +1222,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:L398" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabella1" displayName="Tabella1" ref="A1:L398" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:L398"/>
   <sortState ref="A2:L398">
     <sortCondition ref="A1:A398"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="1" name="categoria_dettaglio" dataDxfId="13"/>
-    <tableColumn id="2" name="anno" dataDxfId="12"/>
-    <tableColumn id="3" name="anno_mese" dataDxfId="11"/>
-    <tableColumn id="4" name="N" dataDxfId="8"/>
-    <tableColumn id="5" name="H" dataDxfId="7"/>
-    <tableColumn id="6" name="Hn" dataDxfId="6"/>
-    <tableColumn id="7" name="H_base" dataDxfId="5"/>
-    <tableColumn id="8" name="Hn_base" dataDxfId="4"/>
-    <tableColumn id="9" name="Hn_year" dataDxfId="3"/>
-    <tableColumn id="10" name="delta_Hn_month_vs_base" dataDxfId="2"/>
-    <tableColumn id="11" name="delta_Hn_month_vs_year" dataDxfId="1"/>
-    <tableColumn id="12" name="delta_Hn_year" dataDxfId="0"/>
+    <tableColumn id="1" name="categoria_dettaglio" dataDxfId="12"/>
+    <tableColumn id="2" name="anno" dataDxfId="11"/>
+    <tableColumn id="3" name="anno_mese" dataDxfId="10"/>
+    <tableColumn id="4" name="N" dataDxfId="9"/>
+    <tableColumn id="5" name="H" dataDxfId="8"/>
+    <tableColumn id="6" name="Hn" dataDxfId="7"/>
+    <tableColumn id="7" name="H_base" dataDxfId="6"/>
+    <tableColumn id="8" name="Hn_base" dataDxfId="5"/>
+    <tableColumn id="9" name="Hn_year" dataDxfId="4"/>
+    <tableColumn id="10" name="delta_Hn_month_vs_base" dataDxfId="3"/>
+    <tableColumn id="11" name="delta_Hn_month_vs_year" dataDxfId="2"/>
+    <tableColumn id="12" name="delta_Hn_year" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1501,7 +1511,7 @@
   <dimension ref="A1:L398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -16645,6 +16655,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D398">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entropia di Shannon" prompt="Entropia del periodo" sqref="E2:F398"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entropia di Shannon" prompt="Entropia della Categoria" sqref="G2:H398"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entropia di Shannon" prompt="Entropia della categoria nell'anno in esame" sqref="I2:I398"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Entropia di Shannon" prompt="Valore dell'entropia che ha fatto scattare l'analisi ∆H&gt;0.1" sqref="L2:L398"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Operazioni nel mese" prompt="n° operazioni effettuate nel mese in esame" sqref="D1:D1048576"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
